--- a/htdocs/px-files/sitemaps/sitemap.xlsx
+++ b/htdocs/px-files/sitemaps/sitemap.xlsx
@@ -15,15 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
-  <si>
-    <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
+  <si>
+    <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.2</t>
   </si>
   <si>
     <t>「px2-page-list-generator」 サイトマップ</t>
   </si>
   <si>
-    <t>Exported: 2015-05-15 04:23:07</t>
+    <t>Exported: 2015-09-12 13:59:33</t>
   </si>
   <si>
     <t>ページID</t>
@@ -71,6 +71,18 @@
     <t>削除フラグ</t>
   </si>
   <si>
+    <t>article_flg</t>
+  </si>
+  <si>
+    <t>release_date</t>
+  </si>
+  <si>
+    <t>update_date</t>
+  </si>
+  <si>
+    <t>article_summary</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -140,40 +152,136 @@
     <t>/listsample1/articles/1/</t>
   </si>
   <si>
+    <t>2015-01-23</t>
+  </si>
+  <si>
+    <t>Summary 1</t>
+  </si>
+  <si>
     <t>Article 2</t>
   </si>
   <si>
     <t>/listsample1/articles/2/</t>
   </si>
   <si>
+    <t>Summary 2</t>
+  </si>
+  <si>
     <t>Article 3</t>
   </si>
   <si>
     <t>/listsample1/articles/3/</t>
   </si>
   <si>
+    <t>Summary 3</t>
+  </si>
+  <si>
     <t>Article 4</t>
   </si>
   <si>
     <t>/listsample1/articles/4/</t>
   </si>
   <si>
+    <t>Summary 4</t>
+  </si>
+  <si>
     <t>Article 5</t>
   </si>
   <si>
     <t>/listsample1/articles/5/</t>
   </si>
   <si>
+    <t>Summary 5</t>
+  </si>
+  <si>
     <t>Article 6</t>
   </si>
   <si>
     <t>/listsample1/articles/6/</t>
   </si>
   <si>
+    <t>Summary 6</t>
+  </si>
+  <si>
     <t>Article 7</t>
   </si>
   <si>
     <t>/listsample1/articles/7/</t>
+  </si>
+  <si>
+    <t>Summary 7</t>
+  </si>
+  <si>
+    <t>Article 8</t>
+  </si>
+  <si>
+    <t>/listsample1/articles/8/</t>
+  </si>
+  <si>
+    <t>Summary 8</t>
+  </si>
+  <si>
+    <t>Article 9</t>
+  </si>
+  <si>
+    <t>/listsample1/articles/9/</t>
+  </si>
+  <si>
+    <t>Summary 9</t>
+  </si>
+  <si>
+    <t>Article 10</t>
+  </si>
+  <si>
+    <t>/listsample1/articles/10/</t>
+  </si>
+  <si>
+    <t>Summary 10</t>
+  </si>
+  <si>
+    <t>Article 11</t>
+  </si>
+  <si>
+    <t>/listsample1/articles/11/</t>
+  </si>
+  <si>
+    <t>Summary 11</t>
+  </si>
+  <si>
+    <t>Article 12</t>
+  </si>
+  <si>
+    <t>/listsample1/articles/12/</t>
+  </si>
+  <si>
+    <t>Summary 12</t>
+  </si>
+  <si>
+    <t>Article 13</t>
+  </si>
+  <si>
+    <t>/listsample1/articles/13/</t>
+  </si>
+  <si>
+    <t>Summary 13</t>
+  </si>
+  <si>
+    <t>Article 14</t>
+  </si>
+  <si>
+    <t>/listsample1/articles/14/</t>
+  </si>
+  <si>
+    <t>Summary 14</t>
+  </si>
+  <si>
+    <t>Article 15</t>
+  </si>
+  <si>
+    <t>/listsample1/articles/15/</t>
+  </si>
+  <si>
+    <t>Summary 15</t>
   </si>
   <si>
     <t>LIST SAMPLE 2</t>
@@ -670,7 +778,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
@@ -701,7 +809,7 @@
     <col min="18" max="18" width="3" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" customHeight="1" ht="10">
+    <row r="1" spans="1:23" customHeight="1" ht="10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,18 +831,22 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:23">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -784,62 +896,86 @@
       <c r="S7" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="V8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="W8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="4"/>
       <c r="B9" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -850,26 +986,30 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4">
         <v>1</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="O9" s="4"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="4"/>
       <c r="B10" s="6"/>
       <c r="C10" s="8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -879,10 +1019,10 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M10" s="4">
         <v>1</v>
@@ -895,13 +1035,17 @@
         <v>1</v>
       </c>
       <c r="S10" s="4"/>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="4"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -910,7 +1054,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -920,13 +1064,25 @@
       <c r="Q11" s="9"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11" s="4">
+        <v>1</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="4"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -935,7 +1091,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -945,13 +1101,25 @@
       <c r="Q12" s="9"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12" s="4">
+        <v>1</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="4"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -960,7 +1128,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -970,13 +1138,25 @@
       <c r="Q13" s="9"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13" s="4">
+        <v>1</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="4"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
       <c r="D14" s="8" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -985,7 +1165,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
@@ -995,13 +1175,25 @@
       <c r="Q14" s="9"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14" s="4">
+        <v>1</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W14" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="4"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -1010,7 +1202,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
@@ -1020,13 +1212,25 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15" s="4">
+        <v>1</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W15" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="4"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="8" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -1035,7 +1239,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
@@ -1045,13 +1249,25 @@
       <c r="Q16" s="9"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16" s="4">
+        <v>1</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W16" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="4"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
       <c r="D17" s="8" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -1060,7 +1276,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
@@ -1070,14 +1286,26 @@
       <c r="Q17" s="9"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17" s="4">
+        <v>1</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W17" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="4"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="4"/>
@@ -1085,45 +1313,349 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="M18" s="4">
-        <v>1</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
-      <c r="R18" s="4">
-        <v>1</v>
-      </c>
+      <c r="R18" s="4"/>
       <c r="S18" s="4"/>
-    </row>
-    <row r="21" spans="1:19" customHeight="1" ht="5">
-      <c r="A21" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
+      <c r="T18" s="4">
+        <v>1</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W18" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4">
+        <v>1</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W19" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="4"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4">
+        <v>1</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W20" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="4"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4">
+        <v>1</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W21" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="4"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4">
+        <v>1</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W22" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="4"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4">
+        <v>1</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W23" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="4"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4">
+        <v>1</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W24" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="4"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4">
+        <v>1</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W25" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="4"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M26" s="4">
+        <v>1</v>
+      </c>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="4">
+        <v>1</v>
+      </c>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+    </row>
+    <row r="29" spans="1:23" customHeight="1" ht="5">
+      <c r="A29" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
